--- a/02_ETL/03_Data_Format/2. Excel/output_files/4output_pandas2.xlsx
+++ b/02_ETL/03_Data_Format/2. Excel/output_files/4output_pandas2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,43 +466,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5678</v>
+        <v>2345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jenny Walters</t>
+          <t>Mary Harrison</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100-0006</t>
+          <t>100-0003</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1725</v>
+        <v>1425</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>41298</v>
+        <v>41280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>5678</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jenny Walters</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>100-0006</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>41298</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>6789</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Samantha Donaldson</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>100-0007</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1995</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>41305</v>
       </c>
     </row>
